--- a/Excel/XLOOKUP.xlsx
+++ b/Excel/XLOOKUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesha\OneDrive\Desktop\Data Science\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{625F3FEF-17C5-43E2-BFC2-A4868BFCBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434B9D22-DF94-47F1-B112-91E579536BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="2" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +373,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -413,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -519,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,15 +702,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027015F-D30F-450C-928C-DE78480974B7}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -766,6 +807,10 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
+      <c r="B3" t="str">
+        <f>_xlfn.XLOOKUP(A3,H2:H10, P2:P10)</f>
+        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
+      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -804,6 +849,10 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B6" si="0">_xlfn.XLOOKUP(A4,H3:H11, P3:P11)</f>
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -842,6 +891,10 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -880,6 +933,10 @@
       <c r="A6" t="s">
         <v>69</v>
       </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin.Malone@DunderMifflin.com</v>
+      </c>
       <c r="E6">
         <v>1005</v>
       </c>
@@ -1056,13 +1113,13 @@
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" t="str">
-        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
+        <f t="shared" ref="H22:H23" si="1">CONCATENATE(F12," ",G12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1076,15 +1133,24 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1171,6 +1237,13 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:C3">_xlfn.XLOOKUP(A3,I2:I10,O2:P10)</f>
+        <v>8/30/2017</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
+      </c>
       <c r="F3">
         <v>1002</v>
       </c>
@@ -1209,6 +1282,13 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:C4">_xlfn.XLOOKUP(A4,I3:I11,O3:P11)</f>
+        <v>10/10/2015</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="F4">
         <v>1003</v>
       </c>
@@ -1247,6 +1327,13 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:C5">_xlfn.XLOOKUP(A5,I4:I12,O4:P12)</f>
+        <v>9/11/2013</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="F5">
         <v>1004</v>
       </c>
@@ -1284,6 +1371,13 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6:C6">_xlfn.XLOOKUP(A6,I5:I13,O5:P13)</f>
+        <v>4/22/2015</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Kevin.Malone@DunderMifflin.com</v>
       </c>
       <c r="F6">
         <v>1005</v>
@@ -1478,397 +1572,441 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7D64C-38C9-4586-AD37-471BFBE38708}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1001</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>45000</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3">
+      <c r="B3" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A3,H2:H10,O2:O10,"Not Found")</f>
+        <v>Not Found</v>
+      </c>
+      <c r="E3" s="3">
         <v>1002</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>36000</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="B4" s="3" t="str">
+        <f>_xlfn.XLOOKUP("*"&amp;A4,H2:H10,O2:O10,"Not Found",2)</f>
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
+      <c r="E4" s="3">
         <v>1003</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>63000</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5">
+      <c r="B5" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A5&amp;"*",H3:H11,O3:O11,"Not Found",2)</f>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
+      <c r="E5" s="3">
         <v>1004</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>47000</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6">
+      <c r="B6" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A6&amp;"*",H4:H12,O4:O12,"Not Found",2)</f>
+        <v>Kevin.Malone@DunderMifflin.com</v>
+      </c>
+      <c r="E6" s="3">
         <v>1005</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>50000</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1006</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>65000</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1007</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>41000</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1008</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>38</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>48000</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1009</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>42000</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="5" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A6, H2:H10, O2:O10, "Not Found", 1)</f>
+        <v>Kevin.Malone@DunderMifflin.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A5, H2:H10, O2:O10, "Not Found", 1)</f>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A4, H2:H10, O2:O10, "Not Found", 1)</f>
+        <v>Dwight.Schrute@AOL.com</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="str">
+        <f t="shared" ref="H21:H22" si="0">CONCATENATE(F12," ",G12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" t="str">
-        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" t="str">
+      <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1883,16 +2021,24 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2280,7 +2426,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2471,12 +2617,26 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -2672,12 +2832,25 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
